--- a/tensorflow/lite/kernels/optimized-low-precision/Results/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations/variable-all-sizes/Excels/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations-detailed-method-based.xlsx
+++ b/tensorflow/lite/kernels/optimized-low-precision/Results/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations/variable-all-sizes/Excels/experiment-12-single-mul-single-batch-all-sizes-with-sleep-fixed-iterations-detailed-method-based.xlsx
@@ -9019,7 +9019,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9031,7 +9031,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9043,7 +9043,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9055,7 +9055,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9067,7 +9067,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9079,7 +9079,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9091,7 +9091,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9103,7 +9103,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9115,7 +9115,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9127,7 +9127,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9139,7 +9139,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9151,7 +9151,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9163,7 +9163,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9175,7 +9175,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9187,7 +9187,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9199,7 +9199,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9211,7 +9211,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9223,7 +9223,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9235,7 +9235,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9247,7 +9247,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9259,7 +9259,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9271,7 +9271,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9283,7 +9283,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9295,7 +9295,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9307,7 +9307,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9319,7 +9319,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9331,7 +9331,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9343,7 +9343,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9355,7 +9355,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9367,7 +9367,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9379,7 +9379,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9391,7 +9391,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9403,7 +9403,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9415,7 +9415,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9427,7 +9427,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -9439,7 +9439,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15253,7 +15253,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15265,7 +15265,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15277,7 +15277,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15289,7 +15289,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15301,7 +15301,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15313,7 +15313,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15325,7 +15325,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15337,7 +15337,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15349,7 +15349,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15361,7 +15361,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15373,7 +15373,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15385,7 +15385,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15397,7 +15397,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15409,7 +15409,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15421,7 +15421,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15433,7 +15433,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15445,7 +15445,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15457,7 +15457,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15469,7 +15469,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15481,7 +15481,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15493,7 +15493,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15505,7 +15505,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15517,7 +15517,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15529,7 +15529,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15541,7 +15541,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15553,7 +15553,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15565,7 +15565,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15577,7 +15577,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15589,7 +15589,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15601,7 +15601,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15613,7 +15613,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15625,7 +15625,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15637,7 +15637,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15649,7 +15649,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15661,7 +15661,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -15673,7 +15673,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21487,7 +21487,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21499,7 +21499,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21511,7 +21511,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21523,7 +21523,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21535,7 +21535,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21547,7 +21547,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21559,7 +21559,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21571,7 +21571,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21583,7 +21583,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21595,7 +21595,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21607,7 +21607,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21619,7 +21619,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21631,7 +21631,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21643,7 +21643,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21655,7 +21655,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21667,7 +21667,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21679,7 +21679,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21691,7 +21691,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21703,7 +21703,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21715,7 +21715,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21727,7 +21727,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21739,7 +21739,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21751,7 +21751,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21763,7 +21763,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21775,7 +21775,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21787,7 +21787,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21799,7 +21799,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21811,7 +21811,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21823,7 +21823,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21835,7 +21835,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21847,7 +21847,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21859,7 +21859,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21871,7 +21871,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21883,7 +21883,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21895,7 +21895,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -21907,7 +21907,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27721,7 +27721,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27733,7 +27733,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27745,7 +27745,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27757,7 +27757,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27769,7 +27769,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27781,7 +27781,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27793,7 +27793,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27805,7 +27805,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27817,7 +27817,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27829,7 +27829,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27841,7 +27841,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27853,7 +27853,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27865,7 +27865,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27877,7 +27877,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27889,7 +27889,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27901,7 +27901,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27913,7 +27913,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27925,7 +27925,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27937,7 +27937,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27949,7 +27949,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27961,7 +27961,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27973,7 +27973,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27985,7 +27985,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -27997,7 +27997,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28009,7 +28009,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28021,7 +28021,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28033,7 +28033,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28045,7 +28045,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28057,7 +28057,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28069,7 +28069,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28081,7 +28081,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28093,7 +28093,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28105,7 +28105,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28117,7 +28117,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28129,7 +28129,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -28141,7 +28141,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -33955,7 +33955,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -33967,7 +33967,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -33979,7 +33979,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -33991,7 +33991,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34003,7 +34003,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34015,7 +34015,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34027,7 +34027,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34039,7 +34039,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34051,7 +34051,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34063,7 +34063,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34075,7 +34075,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34087,7 +34087,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34099,7 +34099,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34111,7 +34111,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34123,7 +34123,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34135,7 +34135,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34147,7 +34147,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34159,7 +34159,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34171,7 +34171,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34183,7 +34183,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34195,7 +34195,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34207,7 +34207,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34219,7 +34219,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34231,7 +34231,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34243,7 +34243,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34255,7 +34255,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34267,7 +34267,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34279,7 +34279,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34291,7 +34291,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34303,7 +34303,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34315,7 +34315,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34327,7 +34327,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34339,7 +34339,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34351,7 +34351,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34363,7 +34363,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -34375,7 +34375,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40189,7 +40189,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40201,7 +40201,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40213,7 +40213,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40225,7 +40225,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40237,7 +40237,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40249,7 +40249,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40261,7 +40261,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40273,7 +40273,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40285,7 +40285,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40297,7 +40297,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40309,7 +40309,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40321,7 +40321,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40333,7 +40333,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40345,7 +40345,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40357,7 +40357,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40369,7 +40369,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40381,7 +40381,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40393,7 +40393,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40405,7 +40405,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40417,7 +40417,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40429,7 +40429,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40441,7 +40441,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40453,7 +40453,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40465,7 +40465,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40477,7 +40477,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40489,7 +40489,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40501,7 +40501,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40513,7 +40513,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40525,7 +40525,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40537,7 +40537,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40549,7 +40549,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40561,7 +40561,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40573,7 +40573,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40585,7 +40585,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40597,7 +40597,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -40609,7 +40609,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46423,7 +46423,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46435,7 +46435,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46447,7 +46447,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46459,7 +46459,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46471,7 +46471,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46483,7 +46483,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46495,7 +46495,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46507,7 +46507,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46519,7 +46519,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46531,7 +46531,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46543,7 +46543,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46555,7 +46555,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46567,7 +46567,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46579,7 +46579,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46591,7 +46591,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46603,7 +46603,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46615,7 +46615,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46627,7 +46627,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46639,7 +46639,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46651,7 +46651,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46663,7 +46663,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46675,7 +46675,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46687,7 +46687,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46699,7 +46699,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46711,7 +46711,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46723,7 +46723,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46735,7 +46735,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46747,7 +46747,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46759,7 +46759,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46771,7 +46771,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46783,7 +46783,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46795,7 +46795,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46807,7 +46807,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46819,7 +46819,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46831,7 +46831,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -46843,7 +46843,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52657,7 +52657,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52669,7 +52669,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52681,7 +52681,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52693,7 +52693,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52705,7 +52705,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52717,7 +52717,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52729,7 +52729,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52741,7 +52741,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52753,7 +52753,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52765,7 +52765,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52777,7 +52777,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52789,7 +52789,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52801,7 +52801,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52813,7 +52813,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52825,7 +52825,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52837,7 +52837,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52849,7 +52849,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52861,7 +52861,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52873,7 +52873,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52885,7 +52885,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52897,7 +52897,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52909,7 +52909,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52921,7 +52921,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52933,7 +52933,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52945,7 +52945,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52957,7 +52957,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52969,7 +52969,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52981,7 +52981,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -52993,7 +52993,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -53005,7 +53005,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -53017,7 +53017,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -53029,7 +53029,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -53041,7 +53041,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -53053,7 +53053,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -53065,7 +53065,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -53077,7 +53077,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58891,7 +58891,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58903,7 +58903,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58915,7 +58915,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58927,7 +58927,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58939,7 +58939,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58951,7 +58951,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58963,7 +58963,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58975,7 +58975,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58987,7 +58987,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -58999,7 +58999,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59011,7 +59011,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59023,7 +59023,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59035,7 +59035,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59047,7 +59047,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59059,7 +59059,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59071,7 +59071,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59083,7 +59083,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59095,7 +59095,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59107,7 +59107,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59119,7 +59119,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59131,7 +59131,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59143,7 +59143,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59155,7 +59155,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59167,7 +59167,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59179,7 +59179,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59191,7 +59191,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59203,7 +59203,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59215,7 +59215,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59227,7 +59227,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59239,7 +59239,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59251,7 +59251,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59263,7 +59263,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59275,7 +59275,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59287,7 +59287,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59299,7 +59299,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -59311,7 +59311,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65125,7 +65125,7 @@
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65137,7 +65137,7 @@
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65149,7 +65149,7 @@
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65161,7 +65161,7 @@
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65173,7 +65173,7 @@
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65185,7 +65185,7 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65197,7 +65197,7 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65209,7 +65209,7 @@
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65221,7 +65221,7 @@
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65233,7 +65233,7 @@
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65245,7 +65245,7 @@
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65257,7 +65257,7 @@
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65269,7 +65269,7 @@
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65281,7 +65281,7 @@
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65293,7 +65293,7 @@
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65305,7 +65305,7 @@
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65317,7 +65317,7 @@
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65329,7 +65329,7 @@
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65341,7 +65341,7 @@
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65353,7 +65353,7 @@
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65365,7 +65365,7 @@
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65377,7 +65377,7 @@
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65389,7 +65389,7 @@
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65401,7 +65401,7 @@
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65413,7 +65413,7 @@
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65425,7 +65425,7 @@
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65437,7 +65437,7 @@
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65449,7 +65449,7 @@
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65461,7 +65461,7 @@
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65473,7 +65473,7 @@
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65485,7 +65485,7 @@
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65497,7 +65497,7 @@
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65509,7 +65509,7 @@
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65521,7 +65521,7 @@
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65533,7 +65533,7 @@
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
@@ -65545,7 +65545,7 @@
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFF0000"/>
         <color rgb="FFFFFF00"/>
